--- a/data/förtroendevalda_kommun_ålder.xlsx
+++ b/data/förtroendevalda_kommun_ålder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -208,54 +208,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -594,13 +546,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -614,6 +559,61 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,18 +629,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D4C03D0-114F-45A1-85D1-101D065A2A1E}" name="Tabell3" displayName="Tabell3" ref="A1:I301" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D4C03D0-114F-45A1-85D1-101D065A2A1E}" name="Tabell3" displayName="Tabell3" ref="A1:I301" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I301" xr:uid="{2D4C03D0-114F-45A1-85D1-101D065A2A1E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D55C18E8-06ED-4E8D-98C4-67D48536861D}" name="Parti" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5E96F934-9AE3-430B-94C1-2C7EC0C9429F}" name="Kön" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{229F25E4-3265-454B-AA38-3C9439354C9B}" name="Kategori" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{521CB460-6B14-407E-9490-7A4AA99A7875}" name="Mätvariabel" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6A10EE87-D3C0-40C1-AA7E-37EEEF759BDB}" name="2007-2010" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{30C75A5A-AC85-4C8F-BDA4-63CBE084C5D7}" name="2011-2014" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{69543384-D4B0-4524-94C2-D44140B1012D}" name="2015-2018" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{37C875B4-079A-4413-8B97-21E44466CDAF}" name="2019-2022" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{436A5F6F-FE7C-47AA-8A89-113D0FE5BD06}" name="2023-2026" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D55C18E8-06ED-4E8D-98C4-67D48536861D}" name="Parti" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5E96F934-9AE3-430B-94C1-2C7EC0C9429F}" name="Kön" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{229F25E4-3265-454B-AA38-3C9439354C9B}" name="Kategori" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{521CB460-6B14-407E-9490-7A4AA99A7875}" name="Mätvariabel" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6A10EE87-D3C0-40C1-AA7E-37EEEF759BDB}" name="2007-2010" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{30C75A5A-AC85-4C8F-BDA4-63CBE084C5D7}" name="2011-2014" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{69543384-D4B0-4524-94C2-D44140B1012D}" name="2015-2018" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{37C875B4-079A-4413-8B97-21E44466CDAF}" name="2019-2022" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{436A5F6F-FE7C-47AA-8A89-113D0FE5BD06}" name="2023-2026" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,7 +934,7 @@
   <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
